--- a/medicine/Psychotrope/Brasserie_Jupiler/Brasserie_Jupiler.xlsx
+++ b/medicine/Psychotrope/Brasserie_Jupiler/Brasserie_Jupiler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Jupiler (anciennement Piedbœuf) est une entreprise située à Jupille-sur-Meuse au nord de la commune et ville de Liège en province de Liège (Belgique). Elle est l'une des plus grandes brasseries du pays et la plus importante de la province de Liège et de Wallonie. La brasserie fait partie du groupe brassicole international AB InBev.
@@ -512,13 +524,15 @@
           <t>Historique de la brasserie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1812, l'entreprise débute en fabriquant du matériel de brasserie[1]. C’est en 1853 que Jean-Théodore Piedbœuf se lance dans le brassage de bières dans une brasserie située à Jupille-sur-Meuse en rive droite de la Meuse[2]. L'entreprise prend le nom de brasserie Piedbœuf. 
-Dans les années 1950, en réponse à la concurrence allemande, Albert Van Damme, membre de la famille Piedbœuf, choisit de créer une bière blonde de basse fermentation et maltée. C'est ainsi que naquit la Jupiler « Urtyp », avec une terminaison en « er » pour rappeler une sonorité germanique[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1812, l'entreprise débute en fabriquant du matériel de brasserie. C’est en 1853 que Jean-Théodore Piedbœuf se lance dans le brassage de bières dans une brasserie située à Jupille-sur-Meuse en rive droite de la Meuse. L'entreprise prend le nom de brasserie Piedbœuf. 
+Dans les années 1950, en réponse à la concurrence allemande, Albert Van Damme, membre de la famille Piedbœuf, choisit de créer une bière blonde de basse fermentation et maltée. C'est ainsi que naquit la Jupiler « Urtyp », avec une terminaison en « er » pour rappeler une sonorité germanique,.
 Cette petite brasserie ne va cesser de s'accroître pour arriver à produire 2 750 000 hl de bière par an et occuper 3 800 personnes en 1979.
-En 1987, la brasserie fusionne avec la brasserie Artois de Louvain pour former le groupe Interbrew[5]. Actuellement elle est l'un des cinq sites de production en Belgique du groupe Anheuser-Busch InBev, héritier d'Interbrew[6],[7].
-Une nouvelle brasserie industrielle voit le jour en 1992 sur le site initial agrandi à une superficie de 28 hectares[8]. Elle prendra la nom de brasserie Jupiler en se référant à la célèbre bière de type pils Jupiler brassée depuis 1966. Elle produit principalement des bières de fermentation basse[9],[10].
+En 1987, la brasserie fusionne avec la brasserie Artois de Louvain pour former le groupe Interbrew. Actuellement elle est l'un des cinq sites de production en Belgique du groupe Anheuser-Busch InBev, héritier d'Interbrew,.
+Une nouvelle brasserie industrielle voit le jour en 1992 sur le site initial agrandi à une superficie de 28 hectares. Elle prendra la nom de brasserie Jupiler en se référant à la célèbre bière de type pils Jupiler brassée depuis 1966. Elle produit principalement des bières de fermentation basse,.
 La brasserie occupe 510 employés en 2014[réf. souhaitée]. 
 </t>
         </is>
@@ -548,7 +562,9 @@
           <t>Principales bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jupiler, bière blonde de type pils (fermentation basse) titrant à 5,2 % de volume d'alcool
 Jupiler 0,0 % à 0 % de volume d'alcool
@@ -586,7 +602,9 @@
           <t>Autres brasseries belges AB InBev</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brasserie Artois
 Brasserie Belle-Vue
